--- a/data/quote_test.xlsx
+++ b/data/quote_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rom\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33949EAB-D03C-471F-9607-EA5530DC9AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040B2F20-C831-48EA-8D65-006B191A9E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38070" windowHeight="20280" xr2:uid="{5F3DD2D7-3CE6-4284-AA3E-09AD72F1F08C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>col1</t>
   </si>
@@ -39,13 +39,22 @@
     <t>dsfds</t>
   </si>
   <si>
-    <t>dsafds</t>
-  </si>
-  <si>
     <t>afds</t>
   </si>
   <si>
     <t>ds"sdsd</t>
+  </si>
+  <si>
+    <t>xcvxcvcx</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbbbb</t>
+  </si>
+  <si>
+    <t>dsa'fds</t>
   </si>
 </sst>
 </file>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D28737-1035-4EC3-BF6B-99CC8F865E25}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,15 +432,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
